--- a/Descargas/R15_3º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Julio.xlsx
+++ b/Descargas/R15_3º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Julio.xlsx
@@ -431,7 +431,7 @@
         </is>
       </c>
       <c r="B23" s="65">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24">
@@ -841,7 +841,7 @@
         </is>
       </c>
       <c r="B64" s="65">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="65">
